--- a/New files/University of Washington Medical Center/Invoice-4185038.xlsx
+++ b/New files/University of Washington Medical Center/Invoice-4185038.xlsx
@@ -20759,4 +20759,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
+    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
+    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FD6172-BC8F-4CE9-A8AD-1BAE0ABA512F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D37AC05-58C4-463F-9C54-F7150012AF9D}"/>
 </file>
--- a/New files/University of Washington Medical Center/Invoice-4185038.xlsx
+++ b/New files/University of Washington Medical Center/Invoice-4185038.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7182298E-FFFF-492D-B626-6445F2E64414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8429BABF-77ED-49C4-B9DB-49D4780C32BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63355981-58BD-4810-8938-43B0760D55E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{882E3BCA-EB88-4F45-A095-676B18F6A57A}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -958,20 +958,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379FF145-BD84-6646-039F-04DFBBC1CC54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDE5F28-B01B-3E67-E808-45DD027585B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,21 +1302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4429F0EB-98D2-473B-A10C-382D4E57F007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76C42F-2142-4106-A14F-6EE2AF8A20D7}">
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1602,7 +1602,7 @@
       <c r="I25" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="11" t="s">
         <v>71</v>
       </c>
       <c r="K25" s="16" t="s">
@@ -1633,7 +1633,7 @@
       <c r="I26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="13">
         <v>708290</v>
       </c>
       <c r="K26" s="17">
@@ -1664,7 +1664,7 @@
       <c r="I27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="13">
         <v>708290</v>
       </c>
       <c r="K27" s="17">
@@ -1695,7 +1695,7 @@
       <c r="I28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="13">
         <v>708290</v>
       </c>
       <c r="K28" s="17">
@@ -1724,7 +1724,7 @@
       <c r="I29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="13">
         <v>708290</v>
       </c>
       <c r="K29" s="17">
@@ -1755,7 +1755,7 @@
       <c r="I30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="13">
         <v>708290</v>
       </c>
       <c r="K30" s="17">
@@ -1786,7 +1786,7 @@
       <c r="I31" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="13">
         <v>708290</v>
       </c>
       <c r="K31" s="17">
@@ -1817,7 +1817,7 @@
       <c r="I32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="13">
         <v>708290</v>
       </c>
       <c r="K32" s="17">
@@ -1848,7 +1848,7 @@
       <c r="I33" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="13">
         <v>708390</v>
       </c>
       <c r="K33" s="17">
@@ -1879,7 +1879,7 @@
       <c r="I34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="13">
         <v>708390</v>
       </c>
       <c r="K34" s="17">
@@ -1910,7 +1910,7 @@
       <c r="I35" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="13">
         <v>708290</v>
       </c>
       <c r="K35" s="17">
@@ -1939,7 +1939,7 @@
       <c r="I36" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="13">
         <v>708390</v>
       </c>
       <c r="K36" s="17">
@@ -1970,7 +1970,7 @@
       <c r="I37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="17">
         <v>27</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="I38" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="17">
         <v>40</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="I39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="17">
         <v>47.5</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="I40" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="22"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="17">
         <v>24</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="I41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J41" s="22"/>
+      <c r="J41" s="13"/>
       <c r="K41" s="17">
         <v>-12</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="I42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="13">
         <v>708290</v>
       </c>
       <c r="K42" s="17">
@@ -2144,7 +2144,7 @@
       <c r="I43" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="13">
         <v>708290</v>
       </c>
       <c r="K43" s="17">
@@ -2175,7 +2175,7 @@
       <c r="I44" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="13">
         <v>708290</v>
       </c>
       <c r="K44" s="17">
@@ -2202,7 +2202,7 @@
       <c r="I45" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="13">
         <v>708290</v>
       </c>
       <c r="K45" s="17">
@@ -2218,7 +2218,7 @@
       <c r="I46" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="13">
         <v>708290</v>
       </c>
       <c r="K46" s="17">
@@ -2246,7 +2246,7 @@
       <c r="I47" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="13">
         <v>708390</v>
       </c>
       <c r="K47" s="17">
@@ -2274,7 +2274,7 @@
       <c r="I48" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="13">
         <v>708390</v>
       </c>
       <c r="K48" s="17">
@@ -2302,7 +2302,7 @@
       <c r="I49" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="13">
         <v>708290</v>
       </c>
       <c r="K49" s="17">
@@ -2330,7 +2330,7 @@
       <c r="I50" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="13">
         <v>708290</v>
       </c>
       <c r="K50" s="17">
@@ -2358,7 +2358,7 @@
       <c r="I51" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="13">
         <v>708290</v>
       </c>
       <c r="K51" s="17">
@@ -2386,7 +2386,7 @@
       <c r="I52" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="13">
         <v>708390</v>
       </c>
       <c r="K52" s="17">
@@ -2414,7 +2414,7 @@
       <c r="I53" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="13">
         <v>708390</v>
       </c>
       <c r="K53" s="17">
@@ -2442,7 +2442,7 @@
       <c r="I54" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="13">
         <v>708290</v>
       </c>
       <c r="K54" s="17">
@@ -2470,7 +2470,7 @@
       <c r="I55" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="13">
         <v>708290</v>
       </c>
       <c r="K55" s="17">
@@ -2498,7 +2498,7 @@
       <c r="I56" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="13">
         <v>708290</v>
       </c>
       <c r="K56" s="17">
@@ -2526,7 +2526,7 @@
       <c r="I57" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="13">
         <v>708290</v>
       </c>
       <c r="K57" s="17">
@@ -2554,7 +2554,7 @@
       <c r="I58" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="13">
         <v>708290</v>
       </c>
       <c r="K58" s="17">
@@ -2582,7 +2582,7 @@
       <c r="I59" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="13">
         <v>708390</v>
       </c>
       <c r="K59" s="17">
@@ -2610,7 +2610,7 @@
       <c r="I60" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="13">
         <v>708290</v>
       </c>
       <c r="K60" s="17">
@@ -2638,7 +2638,7 @@
       <c r="I61" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="13">
         <v>708290</v>
       </c>
       <c r="K61" s="17">
@@ -2666,7 +2666,7 @@
       <c r="I62" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="13">
         <v>708290</v>
       </c>
       <c r="K62" s="17">
@@ -2694,7 +2694,7 @@
       <c r="I63" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="13">
         <v>708290</v>
       </c>
       <c r="K63" s="17">
@@ -2722,7 +2722,7 @@
       <c r="I64" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="13">
         <v>708290</v>
       </c>
       <c r="K64" s="17">
@@ -2750,7 +2750,7 @@
       <c r="I65" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J65" s="13">
         <v>708290</v>
       </c>
       <c r="K65" s="17">
@@ -2776,7 +2776,7 @@
       <c r="I66" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J66" s="13">
         <v>708290</v>
       </c>
       <c r="K66" s="17">
@@ -2792,7 +2792,7 @@
       <c r="I67" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="J67" s="22"/>
+      <c r="J67" s="13"/>
       <c r="K67" s="17">
         <v>36</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="I68" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J68" s="13">
         <v>708390</v>
       </c>
       <c r="K68" s="17">
@@ -2840,7 +2840,7 @@
       <c r="I69" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="13">
         <v>708390</v>
       </c>
       <c r="K69" s="17">
@@ -2865,7 +2865,7 @@
       <c r="I70" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="13">
         <v>708390</v>
       </c>
       <c r="K70" s="17">
@@ -2890,7 +2890,7 @@
       <c r="I71" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="13">
         <v>708390</v>
       </c>
       <c r="K71" s="17">
@@ -2915,7 +2915,7 @@
       <c r="I72" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J72" s="22"/>
+      <c r="J72" s="13"/>
       <c r="K72" s="17">
         <v>12</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="I73" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="13">
         <v>708290</v>
       </c>
       <c r="K73" s="17">
@@ -2945,7 +2945,7 @@
       <c r="I74" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="13">
         <v>708390</v>
       </c>
       <c r="K74" s="17">
@@ -2961,7 +2961,7 @@
       <c r="I75" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="13">
         <v>708390</v>
       </c>
       <c r="K75" s="17">
@@ -2977,7 +2977,7 @@
       <c r="I76" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="13">
         <v>708390</v>
       </c>
       <c r="K76" s="17">
@@ -2993,7 +2993,7 @@
       <c r="I77" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J77" s="13">
         <v>708390</v>
       </c>
       <c r="K77" s="17">
@@ -3009,7 +3009,7 @@
       <c r="I78" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="J78" s="22">
+      <c r="J78" s="13">
         <v>708390</v>
       </c>
       <c r="K78" s="17">
@@ -3025,7 +3025,7 @@
       <c r="I79" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J79" s="13">
         <v>708390</v>
       </c>
       <c r="K79" s="17">
@@ -3041,7 +3041,7 @@
       <c r="I80" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="J80" s="22">
+      <c r="J80" s="13">
         <v>708390</v>
       </c>
       <c r="K80" s="17">
@@ -3057,7 +3057,7 @@
       <c r="I81" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J81" s="13">
         <v>708390</v>
       </c>
       <c r="K81" s="17">
@@ -3073,7 +3073,7 @@
       <c r="I82" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J82" s="22">
+      <c r="J82" s="13">
         <v>708390</v>
       </c>
       <c r="K82" s="17">
@@ -3089,7 +3089,7 @@
       <c r="I83" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J83" s="22">
+      <c r="J83" s="13">
         <v>708390</v>
       </c>
       <c r="K83" s="17">
@@ -3105,7 +3105,7 @@
       <c r="I84" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J84" s="22">
+      <c r="J84" s="13">
         <v>708390</v>
       </c>
       <c r="K84" s="17">
@@ -3121,7 +3121,7 @@
       <c r="I85" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J85" s="23"/>
+      <c r="J85" s="20"/>
       <c r="K85" s="25">
         <v>2180</v>
       </c>
@@ -3166,36 +3166,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C573DFD8-7D72-4671-8461-0C0948597F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5F6118-1B65-4702-A45E-F23DC5C337E2}">
   <dimension ref="A1:W250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -20759,276 +20759,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FD6172-BC8F-4CE9-A8AD-1BAE0ABA512F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D37AC05-58C4-463F-9C54-F7150012AF9D}"/>
 </file>
--- a/New files/University of Washington Medical Center/Invoice-4185038.xlsx
+++ b/New files/University of Washington Medical Center/Invoice-4185038.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC54DB4C-9C34-4C65-81C4-8BB723873A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC59CFB5-46E7-4358-82A4-81CC86071B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{80D05F5D-2055-4912-9008-B60CD7975A1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7B368004-4D72-4059-9F47-237A5FCC87A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -958,20 +958,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47740EC6-276D-07C4-499B-4EB6416C0713}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CA0041-6076-A70F-C19A-DCB1B3FE9A3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,22 +1322,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CE4174-FA1B-4F6A-B08C-2EFBFFF99258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FA75C3-3F54-4375-912E-7285C727C848}">
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3041,36 +3042,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8ACAB3E-D31C-40DF-A641-2BE82CB6DF65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E84583E-8548-40B6-B7EA-9E6DC71F0BCB}">
   <dimension ref="A1:W250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -4391,7 +4392,7 @@
         <v>45390</v>
       </c>
       <c r="Q21" s="32">
-        <v>45480</v>
+        <v>45401</v>
       </c>
       <c r="R21" s="31" t="s">
         <v>157</v>
@@ -4462,7 +4463,7 @@
         <v>45390</v>
       </c>
       <c r="Q22" s="32">
-        <v>45480</v>
+        <v>45401</v>
       </c>
       <c r="R22" s="31" t="s">
         <v>157</v>
@@ -4533,7 +4534,7 @@
         <v>45390</v>
       </c>
       <c r="Q23" s="32">
-        <v>45480</v>
+        <v>45401</v>
       </c>
       <c r="R23" s="31" t="s">
         <v>157</v>
@@ -4604,7 +4605,7 @@
         <v>45390</v>
       </c>
       <c r="Q24" s="32">
-        <v>45480</v>
+        <v>45401</v>
       </c>
       <c r="R24" s="31" t="s">
         <v>157</v>

--- a/New files/University of Washington Medical Center/Invoice-4185038.xlsx
+++ b/New files/University of Washington Medical Center/Invoice-4185038.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2647BE6-8146-4848-828E-EE7BF47B62F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79C78DA-13D2-48BB-8F04-D464DD62550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{BAED5D8B-0105-489E-A96D-8816492F4C12}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B4D81087-FD53-42FF-8A91-F662CADF8184}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -957,20 +957,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484385B8-8D23-9DF2-7E34-46874EED55B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B0471A-09A6-F538-7426-55AF75B06D10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C655ED59-9283-4740-91F5-9974EC49E372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48133A56-41AF-46F3-9426-8DE70F001036}">
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1334,11 +1334,12 @@
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2978,36 +2979,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DDAA63-80ED-4E80-A191-9C55A55B7236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8B5174-DE23-41B3-A49B-2E478EE903DA}">
   <dimension ref="A1:W250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">

--- a/New files/University of Washington Medical Center/Invoice-4185038.xlsx
+++ b/New files/University of Washington Medical Center/Invoice-4185038.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79C78DA-13D2-48BB-8F04-D464DD62550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55682B19-1A38-4F2D-BB22-238CEA6D90A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B4D81087-FD53-42FF-8A91-F662CADF8184}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D244CD36-78ED-4633-BE2A-33D622169D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -957,20 +957,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B0471A-09A6-F538-7426-55AF75B06D10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03B209A-2E93-5A47-51F9-EC826DF3E316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48133A56-41AF-46F3-9426-8DE70F001036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC0AA8D-1016-4D17-8BDA-B1334331E643}">
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1329,14 +1329,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.33203125" customWidth="1"/>
@@ -2979,36 +2979,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8B5174-DE23-41B3-A49B-2E478EE903DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8496EE80-225B-4E27-BEC0-6DF08A1A8FEA}">
   <dimension ref="A1:W250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
